--- a/DesignerConfigs/Datas/bonus/掉落表.xlsx
+++ b/DesignerConfigs/Datas/bonus/掉落表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\bonus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E132449-0916-444B-9A4A-E5F43FE5DB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F51233A-F783-4F31-A9DC-C0B16B0F60C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29340" yWindow="690" windowWidth="27645" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -47,13 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>导出</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -62,9 +56,6 @@
   </si>
   <si>
     <t>client_show_items</t>
-  </si>
-  <si>
-    <t>是否导表</t>
   </si>
   <si>
     <t>编号</t>
@@ -261,6 +252,10 @@
   </si>
   <si>
     <t>等级系数编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -314,7 +309,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,14 +322,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -379,54 +368,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -715,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CD6"/>
+  <dimension ref="A1:CD4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -746,551 +705,303 @@
   <sheetData>
     <row r="1" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
-      <c r="BS1" s="2"/>
-      <c r="BT1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BV1" s="2"/>
-      <c r="BW1" s="2"/>
-      <c r="BX1" s="2"/>
-      <c r="BY1" s="2"/>
-      <c r="BZ1" s="2"/>
-      <c r="CA1" s="2"/>
-      <c r="CB1" s="2"/>
-      <c r="CC1" s="2"/>
-      <c r="CD1" s="2"/>
-    </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="7"/>
+      <c r="BG1" s="7"/>
+      <c r="BH1" s="7"/>
+      <c r="BI1" s="7"/>
+      <c r="BJ1" s="7"/>
+      <c r="BK1" s="7"/>
+      <c r="BL1" s="7"/>
+      <c r="BM1" s="7"/>
+      <c r="BN1" s="7"/>
+      <c r="BO1" s="7"/>
+      <c r="BP1" s="7"/>
+      <c r="BQ1" s="7"/>
+      <c r="BR1" s="7"/>
+      <c r="BS1" s="7"/>
+      <c r="BT1" s="7"/>
+      <c r="BU1" s="7"/>
+      <c r="BV1" s="7"/>
+      <c r="BW1" s="7"/>
+      <c r="BX1" s="7"/>
+      <c r="BY1" s="7"/>
+      <c r="BZ1" s="7"/>
+      <c r="CA1" s="7"/>
+      <c r="CB1" s="7"/>
+      <c r="CC1" s="7"/>
+      <c r="CD1" s="7"/>
+    </row>
+    <row r="2" spans="1:82" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
-      <c r="BB2" s="14"/>
-      <c r="BC2" s="14"/>
-      <c r="BD2" s="14"/>
-      <c r="BE2" s="14"/>
-      <c r="BF2" s="14"/>
-      <c r="BG2" s="14"/>
-      <c r="BH2" s="14"/>
-      <c r="BI2" s="14"/>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="14"/>
-      <c r="BP2" s="14"/>
-      <c r="BQ2" s="14"/>
-      <c r="BR2" s="14"/>
-      <c r="BS2" s="14"/>
-      <c r="BT2" s="14"/>
-      <c r="BU2" s="14"/>
-      <c r="BV2" s="14"/>
-      <c r="BW2" s="14"/>
-      <c r="BX2" s="14"/>
-      <c r="BY2" s="14"/>
-      <c r="BZ2" s="14"/>
-      <c r="CA2" s="14"/>
-      <c r="CB2" s="14"/>
-      <c r="CC2" s="14"/>
-      <c r="CD2" s="14"/>
-    </row>
-    <row r="3" spans="1:82" ht="58.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5">
+        <v>1021490001</v>
+      </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="7"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="7"/>
+      <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
-      <c r="AW3" s="6"/>
-      <c r="AX3" s="6"/>
-      <c r="AY3" s="6"/>
-      <c r="AZ3" s="6"/>
-      <c r="BA3" s="6"/>
-      <c r="BB3" s="6"/>
-      <c r="BC3" s="6"/>
-      <c r="BD3" s="6"/>
-      <c r="BE3" s="6"/>
-      <c r="BF3" s="6"/>
-      <c r="BG3" s="6"/>
-      <c r="BH3" s="6"/>
-      <c r="BI3" s="6"/>
-      <c r="BJ3" s="6"/>
-      <c r="BK3" s="6"/>
-      <c r="BL3" s="6"/>
-      <c r="BM3" s="6"/>
-      <c r="BN3" s="6"/>
-      <c r="BO3" s="6"/>
-      <c r="BP3" s="6"/>
-      <c r="BQ3" s="6"/>
-      <c r="BR3" s="6"/>
-      <c r="BS3" s="6"/>
-      <c r="BT3" s="6"/>
-      <c r="BU3" s="6"/>
-      <c r="BV3" s="6"/>
-      <c r="BW3" s="6"/>
-      <c r="BX3" s="6"/>
-      <c r="BY3" s="6"/>
-      <c r="BZ3" s="6"/>
-      <c r="CA3" s="6"/>
-      <c r="CB3" s="6"/>
-      <c r="CC3" s="6"/>
-      <c r="CD3" s="6"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5"/>
+      <c r="BK3" s="5"/>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5"/>
+      <c r="BP3" s="5"/>
+      <c r="BQ3" s="5"/>
+      <c r="BR3" s="5"/>
+      <c r="BS3" s="5"/>
+      <c r="BT3" s="5"/>
+      <c r="BU3" s="5"/>
+      <c r="BV3" s="5"/>
+      <c r="BW3" s="5"/>
+      <c r="BX3" s="5"/>
+      <c r="BY3" s="5"/>
+      <c r="BZ3" s="5"/>
+      <c r="CA3" s="5"/>
+      <c r="CB3" s="5"/>
+      <c r="CC3" s="5"/>
+      <c r="CD3" s="5"/>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
-      <c r="BF4" s="2"/>
-      <c r="BG4" s="2"/>
-      <c r="BH4" s="2"/>
-      <c r="BI4" s="2"/>
-      <c r="BJ4" s="2"/>
-      <c r="BK4" s="2"/>
-      <c r="BL4" s="2"/>
-      <c r="BM4" s="2"/>
-      <c r="BN4" s="2"/>
-      <c r="BO4" s="2"/>
-      <c r="BP4" s="2"/>
-      <c r="BQ4" s="2"/>
-      <c r="BR4" s="2"/>
-      <c r="BS4" s="2"/>
-      <c r="BT4" s="2"/>
-      <c r="BU4" s="2"/>
-      <c r="BV4" s="2"/>
-      <c r="BW4" s="2"/>
-      <c r="BX4" s="2"/>
-      <c r="BY4" s="2"/>
-      <c r="BZ4" s="2"/>
-      <c r="CA4" s="2"/>
-      <c r="CB4" s="2"/>
-      <c r="CC4" s="2"/>
-      <c r="CD4" s="2"/>
-    </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5">
         <v>1021490001</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="12"/>
-      <c r="AY5" s="12"/>
-      <c r="AZ5" s="12"/>
-      <c r="BA5" s="12"/>
-      <c r="BB5" s="12"/>
-      <c r="BC5" s="12"/>
-      <c r="BD5" s="12"/>
-      <c r="BE5" s="12"/>
-      <c r="BF5" s="12"/>
-      <c r="BG5" s="12"/>
-      <c r="BH5" s="12"/>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="12"/>
-      <c r="BK5" s="12"/>
-      <c r="BL5" s="12"/>
-      <c r="BM5" s="12"/>
-      <c r="BN5" s="12"/>
-      <c r="BO5" s="12"/>
-      <c r="BP5" s="12"/>
-      <c r="BQ5" s="12"/>
-      <c r="BR5" s="12"/>
-      <c r="BS5" s="12"/>
-      <c r="BT5" s="12"/>
-      <c r="BU5" s="12"/>
-      <c r="BV5" s="12"/>
-      <c r="BW5" s="12"/>
-      <c r="BX5" s="12"/>
-      <c r="BY5" s="12"/>
-      <c r="BZ5" s="12"/>
-      <c r="CA5" s="12"/>
-      <c r="CB5" s="12"/>
-      <c r="CC5" s="12"/>
-      <c r="CD5" s="12"/>
-    </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="12">
-        <v>2</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1021490001</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="12"/>
-      <c r="AZ6" s="12"/>
-      <c r="BA6" s="12"/>
-      <c r="BB6" s="12"/>
-      <c r="BC6" s="12"/>
-      <c r="BD6" s="12"/>
-      <c r="BE6" s="12"/>
-      <c r="BF6" s="12"/>
-      <c r="BG6" s="12"/>
-      <c r="BH6" s="12"/>
-      <c r="BI6" s="12"/>
-      <c r="BJ6" s="12"/>
-      <c r="BK6" s="12"/>
-      <c r="BL6" s="12"/>
-      <c r="BM6" s="12"/>
-      <c r="BN6" s="12"/>
-      <c r="BO6" s="12"/>
-      <c r="BP6" s="12"/>
-      <c r="BQ6" s="12"/>
-      <c r="BR6" s="12"/>
-      <c r="BS6" s="12"/>
-      <c r="BT6" s="12"/>
-      <c r="BU6" s="12"/>
-      <c r="BV6" s="12"/>
-      <c r="BW6" s="12"/>
-      <c r="BX6" s="12"/>
-      <c r="BY6" s="12"/>
-      <c r="BZ6" s="12"/>
-      <c r="CA6" s="12"/>
-      <c r="CB6" s="12"/>
-      <c r="CC6" s="12"/>
-      <c r="CD6" s="12"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="5"/>
+      <c r="BG4" s="5"/>
+      <c r="BH4" s="5"/>
+      <c r="BI4" s="5"/>
+      <c r="BJ4" s="5"/>
+      <c r="BK4" s="5"/>
+      <c r="BL4" s="5"/>
+      <c r="BM4" s="5"/>
+      <c r="BN4" s="5"/>
+      <c r="BO4" s="5"/>
+      <c r="BP4" s="5"/>
+      <c r="BQ4" s="5"/>
+      <c r="BR4" s="5"/>
+      <c r="BS4" s="5"/>
+      <c r="BT4" s="5"/>
+      <c r="BU4" s="5"/>
+      <c r="BV4" s="5"/>
+      <c r="BW4" s="5"/>
+      <c r="BX4" s="5"/>
+      <c r="BY4" s="5"/>
+      <c r="BZ4" s="5"/>
+      <c r="CA4" s="5"/>
+      <c r="CB4" s="5"/>
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:CD2"/>
+    <mergeCell ref="E1:CD1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1317,147 +1028,147 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1484,52 +1195,52 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="O11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1537,52 +1248,52 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="C18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/bonus/掉落表.xlsx
+++ b/DesignerConfigs/Datas/bonus/掉落表.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\bonus\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F51233A-F783-4F31-A9DC-C0B16B0F60C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20328" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>pc</author>
   </authors>
   <commentList>
-    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="C18" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1.同一个掉落包内，不同道具通用一个等级系数编号。
@@ -47,7 +39,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+  <si>
+    <t>##</t>
+  </si>
   <si>
     <t>id</t>
   </si>
@@ -58,6 +53,9 @@
     <t>client_show_items</t>
   </si>
   <si>
+    <t>bonus</t>
+  </si>
+  <si>
     <t>编号</t>
   </si>
   <si>
@@ -67,28 +65,6 @@
     <t>奖励</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>est</t>
-    </r>
-  </si>
-  <si>
     <t>奖励一个物品</t>
   </si>
   <si>
@@ -98,99 +74,99 @@
     <t>随机掉落一个</t>
   </si>
   <si>
+    <t>常用奖励类型及格式备注说明</t>
+  </si>
+  <si>
+    <t>货币</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>单个道具数量为1</t>
+  </si>
+  <si>
+    <t>道具ID</t>
+  </si>
+  <si>
+    <t>多个数量为1的道具</t>
+  </si>
+  <si>
+    <t>OneItems</t>
+  </si>
+  <si>
+    <t>道具ID1</t>
+  </si>
+  <si>
+    <t>道具ID2</t>
+  </si>
+  <si>
+    <t>。。。</t>
+  </si>
+  <si>
+    <t>道具IDn</t>
+  </si>
+  <si>
+    <t>道具列表</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>道具数量</t>
+  </si>
+  <si>
+    <t>道具列表（包含数量）</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>道具数量1</t>
+  </si>
+  <si>
+    <t>道具数量n</t>
+  </si>
+  <si>
+    <t>概率权重均等</t>
+  </si>
+  <si>
+    <t>WeightItems</t>
+  </si>
+  <si>
+    <t>道具权重1</t>
+  </si>
+  <si>
+    <t>.。。。</t>
+  </si>
+  <si>
+    <t>道具权重n</t>
+  </si>
+  <si>
+    <t>概率随道具修改</t>
+  </si>
+  <si>
+    <t>ProbabilityItems</t>
+  </si>
+  <si>
+    <t>道具概率1</t>
+  </si>
+  <si>
+    <t>道具概率n</t>
+  </si>
+  <si>
+    <t>复合掉落</t>
+  </si>
+  <si>
     <t>MultiBonus</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>WeightItems</t>
-  </si>
-  <si>
-    <t>常用奖励类型及格式备注说明</t>
-  </si>
-  <si>
-    <t>货币</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>单个道具数量为1</t>
-  </si>
-  <si>
-    <t>道具ID</t>
-  </si>
-  <si>
-    <t>多个数量为1的道具</t>
-  </si>
-  <si>
-    <t>OneItems</t>
-  </si>
-  <si>
-    <t>道具ID1</t>
-  </si>
-  <si>
-    <t>道具ID2</t>
-  </si>
-  <si>
-    <t>。。。</t>
-  </si>
-  <si>
-    <t>道具IDn</t>
-  </si>
-  <si>
-    <t>道具列表</t>
-  </si>
-  <si>
-    <t>道具数量</t>
-  </si>
-  <si>
-    <t>道具列表（包含数量）</t>
-  </si>
-  <si>
-    <t>Items</t>
-  </si>
-  <si>
-    <t>道具数量1</t>
-  </si>
-  <si>
-    <t>道具数量n</t>
-  </si>
-  <si>
-    <t>概率权重均等</t>
-  </si>
-  <si>
-    <t>道具权重1</t>
-  </si>
-  <si>
-    <t>.。。。</t>
-  </si>
-  <si>
-    <t>道具权重n</t>
-  </si>
-  <si>
-    <t>概率随道具修改</t>
-  </si>
-  <si>
-    <t>ProbabilityItems</t>
-  </si>
-  <si>
-    <t>道具概率1</t>
-  </si>
-  <si>
-    <t>道具概率n</t>
-  </si>
-  <si>
-    <t>复合掉落</t>
-  </si>
-  <si>
     <t>Currencys</t>
   </si>
   <si>
@@ -224,46 +200,29 @@
     <t>ProbabilityBonus</t>
   </si>
   <si>
-    <t>bonus</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>等级系数掉落类型</t>
   </si>
   <si>
     <t>CoefficientItem</t>
   </si>
   <si>
-    <t>等级系数掉落类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具ID2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>等级系数编号</t>
   </si>
   <si>
     <t>道具数量2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具ID1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具数量1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级系数编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,20 +234,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -296,20 +248,154 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,8 +408,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -368,9 +640,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -381,36 +895,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -668,463 +1226,460 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:CD4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="17.8796296296296" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="16.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="13.3796296296296" customWidth="1"/>
     <col min="6" max="6" width="60.5" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="16.3796296296296" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="35.375" customWidth="1"/>
-    <col min="12" max="12" width="11.625" customWidth="1"/>
-    <col min="13" max="13" width="14.375" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="35.3796296296296" customWidth="1"/>
+    <col min="12" max="12" width="11.6296296296296" customWidth="1"/>
+    <col min="13" max="13" width="14.3796296296296" customWidth="1"/>
+    <col min="15" max="15" width="11.6296296296296" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="18" max="18" width="11.625" customWidth="1"/>
-    <col min="36" max="38" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="80" max="82" width="11.625" customWidth="1"/>
+    <col min="18" max="18" width="11.6296296296296" customWidth="1"/>
+    <col min="36" max="38" width="11.6296296296296" customWidth="1"/>
+    <col min="43" max="43" width="11.6296296296296" customWidth="1"/>
+    <col min="64" max="65" width="11.6296296296296" customWidth="1"/>
+    <col min="68" max="68" width="11.6296296296296" customWidth="1"/>
+    <col min="80" max="82" width="11.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:82">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="7"/>
-      <c r="BF1" s="7"/>
-      <c r="BG1" s="7"/>
-      <c r="BH1" s="7"/>
-      <c r="BI1" s="7"/>
-      <c r="BJ1" s="7"/>
-      <c r="BK1" s="7"/>
-      <c r="BL1" s="7"/>
-      <c r="BM1" s="7"/>
-      <c r="BN1" s="7"/>
-      <c r="BO1" s="7"/>
-      <c r="BP1" s="7"/>
-      <c r="BQ1" s="7"/>
-      <c r="BR1" s="7"/>
-      <c r="BS1" s="7"/>
-      <c r="BT1" s="7"/>
-      <c r="BU1" s="7"/>
-      <c r="BV1" s="7"/>
-      <c r="BW1" s="7"/>
-      <c r="BX1" s="7"/>
-      <c r="BY1" s="7"/>
-      <c r="BZ1" s="7"/>
-      <c r="CA1" s="7"/>
-      <c r="CB1" s="7"/>
-      <c r="CC1" s="7"/>
-      <c r="CD1" s="7"/>
-    </row>
-    <row r="2" spans="1:82" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
+      <c r="BM1" s="5"/>
+      <c r="BN1" s="5"/>
+      <c r="BO1" s="5"/>
+      <c r="BP1" s="5"/>
+      <c r="BQ1" s="5"/>
+      <c r="BR1" s="5"/>
+      <c r="BS1" s="5"/>
+      <c r="BT1" s="5"/>
+      <c r="BU1" s="5"/>
+      <c r="BV1" s="5"/>
+      <c r="BW1" s="5"/>
+      <c r="BX1" s="5"/>
+      <c r="BY1" s="5"/>
+      <c r="BZ1" s="5"/>
+      <c r="CA1" s="5"/>
+      <c r="CB1" s="5"/>
+      <c r="CC1" s="5"/>
+      <c r="CD1" s="5"/>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:82">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7">
         <v>1021490001</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="5"/>
-      <c r="BF3" s="5"/>
-      <c r="BG3" s="5"/>
-      <c r="BH3" s="5"/>
-      <c r="BI3" s="5"/>
-      <c r="BJ3" s="5"/>
-      <c r="BK3" s="5"/>
-      <c r="BL3" s="5"/>
-      <c r="BM3" s="5"/>
-      <c r="BN3" s="5"/>
-      <c r="BO3" s="5"/>
-      <c r="BP3" s="5"/>
-      <c r="BQ3" s="5"/>
-      <c r="BR3" s="5"/>
-      <c r="BS3" s="5"/>
-      <c r="BT3" s="5"/>
-      <c r="BU3" s="5"/>
-      <c r="BV3" s="5"/>
-      <c r="BW3" s="5"/>
-      <c r="BX3" s="5"/>
-      <c r="BY3" s="5"/>
-      <c r="BZ3" s="5"/>
-      <c r="CA3" s="5"/>
-      <c r="CB3" s="5"/>
-      <c r="CC3" s="5"/>
-      <c r="CD3" s="5"/>
-    </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="7"/>
+      <c r="BB3" s="7"/>
+      <c r="BC3" s="7"/>
+      <c r="BD3" s="7"/>
+      <c r="BE3" s="7"/>
+      <c r="BF3" s="7"/>
+      <c r="BG3" s="7"/>
+      <c r="BH3" s="7"/>
+      <c r="BI3" s="7"/>
+      <c r="BJ3" s="7"/>
+      <c r="BK3" s="7"/>
+      <c r="BL3" s="7"/>
+      <c r="BM3" s="7"/>
+      <c r="BN3" s="7"/>
+      <c r="BO3" s="7"/>
+      <c r="BP3" s="7"/>
+      <c r="BQ3" s="7"/>
+      <c r="BR3" s="7"/>
+      <c r="BS3" s="7"/>
+      <c r="BT3" s="7"/>
+      <c r="BU3" s="7"/>
+      <c r="BV3" s="7"/>
+      <c r="BW3" s="7"/>
+      <c r="BX3" s="7"/>
+      <c r="BY3" s="7"/>
+      <c r="BZ3" s="7"/>
+      <c r="CA3" s="7"/>
+      <c r="CB3" s="7"/>
+      <c r="CC3" s="7"/>
+      <c r="CD3" s="7"/>
+    </row>
+    <row r="4" spans="1:82">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="F4" s="7">
         <v>1021490001</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="5"/>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="5"/>
-      <c r="BI4" s="5"/>
-      <c r="BJ4" s="5"/>
-      <c r="BK4" s="5"/>
-      <c r="BL4" s="5"/>
-      <c r="BM4" s="5"/>
-      <c r="BN4" s="5"/>
-      <c r="BO4" s="5"/>
-      <c r="BP4" s="5"/>
-      <c r="BQ4" s="5"/>
-      <c r="BR4" s="5"/>
-      <c r="BS4" s="5"/>
-      <c r="BT4" s="5"/>
-      <c r="BU4" s="5"/>
-      <c r="BV4" s="5"/>
-      <c r="BW4" s="5"/>
-      <c r="BX4" s="5"/>
-      <c r="BY4" s="5"/>
-      <c r="BZ4" s="5"/>
-      <c r="CA4" s="5"/>
-      <c r="CB4" s="5"/>
-      <c r="CC4" s="5"/>
-      <c r="CD4" s="5"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="7"/>
+      <c r="BD4" s="7"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="7"/>
+      <c r="BG4" s="7"/>
+      <c r="BH4" s="7"/>
+      <c r="BI4" s="7"/>
+      <c r="BJ4" s="7"/>
+      <c r="BK4" s="7"/>
+      <c r="BL4" s="7"/>
+      <c r="BM4" s="7"/>
+      <c r="BN4" s="7"/>
+      <c r="BO4" s="7"/>
+      <c r="BP4" s="7"/>
+      <c r="BQ4" s="7"/>
+      <c r="BR4" s="7"/>
+      <c r="BS4" s="7"/>
+      <c r="BT4" s="7"/>
+      <c r="BU4" s="7"/>
+      <c r="BV4" s="7"/>
+      <c r="BW4" s="7"/>
+      <c r="BX4" s="7"/>
+      <c r="BY4" s="7"/>
+      <c r="BZ4" s="7"/>
+      <c r="CA4" s="7"/>
+      <c r="CB4" s="7"/>
+      <c r="CC4" s="7"/>
+      <c r="CD4" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:CD1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="17.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="12.6296296296296" customWidth="1"/>
+    <col min="6" max="6" width="13.3796296296296" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>33</v>
@@ -1133,16 +1688,16 @@
         <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1150,10 +1705,10 @@
         <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>38</v>
@@ -1162,16 +1717,16 @@
         <v>34</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1182,7 +1737,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1193,39 +1748,39 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>33</v>
@@ -1234,71 +1789,71 @@
         <v>34</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:4">
       <c r="D12" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="C18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>